--- a/data/performance_format/Performance_0_PP.xlsx
+++ b/data/performance_format/Performance_0_PP.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/performance_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0567AC-F485-3744-AF1B-9E0C12F112A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD25D6-3A9F-8147-8331-3F04D08CC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="500" windowWidth="21260" windowHeight="17400" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="performance_params_0" sheetId="1" r:id="rId1"/>
+    <sheet name="Scaling" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Alternative_Param</t>
   </si>
@@ -54,6 +47,15 @@
   </si>
   <si>
     <t>tensile_yield_strength</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Inversion</t>
   </si>
 </sst>
 </file>
@@ -117,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -132,6 +134,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D55A5A-B7EB-8045-ACFE-203E25D14010}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -532,4 +536,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BA562C-4763-334B-A47C-FAC1918D3428}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/performance_format/Performance_0_PP.xlsx
+++ b/data/performance_format/Performance_0_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/performance_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD25D6-3A9F-8147-8331-3F04D08CC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA798671-12BF-294E-9437-2A5F7696D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="500" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
+    <workbookView xWindow="7980" yWindow="940" windowWidth="21260" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
   <sheets>
     <sheet name="performance_params_0" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -584,9 +584,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>2000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -596,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
